--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.325269708777427</v>
+        <v>0.5187273333333333</v>
       </c>
       <c r="H2">
-        <v>0.325269708777427</v>
+        <v>1.556182</v>
       </c>
       <c r="I2">
-        <v>0.008623137164748034</v>
+        <v>0.01248695061656416</v>
       </c>
       <c r="J2">
-        <v>0.008623137164748034</v>
+        <v>0.01248695061656416</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N2">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q2">
-        <v>2.294313903189485</v>
+        <v>4.553155969245555</v>
       </c>
       <c r="R2">
-        <v>2.294313903189485</v>
+        <v>40.97840372321</v>
       </c>
       <c r="S2">
-        <v>0.0005696409752185527</v>
+        <v>0.0009308794514192719</v>
       </c>
       <c r="T2">
-        <v>0.0005696409752185527</v>
+        <v>0.000930879451419272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.325269708777427</v>
+        <v>0.5187273333333333</v>
       </c>
       <c r="H3">
-        <v>0.325269708777427</v>
+        <v>1.556182</v>
       </c>
       <c r="I3">
-        <v>0.008623137164748034</v>
+        <v>0.01248695061656416</v>
       </c>
       <c r="J3">
-        <v>0.008623137164748034</v>
+        <v>0.01248695061656416</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q3">
-        <v>11.72673162049215</v>
+        <v>18.74753567602467</v>
       </c>
       <c r="R3">
-        <v>11.72673162049215</v>
+        <v>168.727821084222</v>
       </c>
       <c r="S3">
-        <v>0.002911557493129871</v>
+        <v>0.003832878962073591</v>
       </c>
       <c r="T3">
-        <v>0.002911557493129871</v>
+        <v>0.00383287896207359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.325269708777427</v>
+        <v>0.5187273333333333</v>
       </c>
       <c r="H4">
-        <v>0.325269708777427</v>
+        <v>1.556182</v>
       </c>
       <c r="I4">
-        <v>0.008623137164748034</v>
+        <v>0.01248695061656416</v>
       </c>
       <c r="J4">
-        <v>0.008623137164748034</v>
+        <v>0.01248695061656416</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N4">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q4">
-        <v>15.28605797468289</v>
+        <v>28.31236972445133</v>
       </c>
       <c r="R4">
-        <v>15.28605797468289</v>
+        <v>254.811327520062</v>
       </c>
       <c r="S4">
-        <v>0.003795280567249627</v>
+        <v>0.005788381372282284</v>
       </c>
       <c r="T4">
-        <v>0.003795280567249627</v>
+        <v>0.005788381372282285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.325269708777427</v>
+        <v>0.5187273333333333</v>
       </c>
       <c r="H5">
-        <v>0.325269708777427</v>
+        <v>1.556182</v>
       </c>
       <c r="I5">
-        <v>0.008623137164748034</v>
+        <v>0.01248695061656416</v>
       </c>
       <c r="J5">
-        <v>0.008623137164748034</v>
+        <v>0.01248695061656416</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N5">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q5">
-        <v>5.423866264828558</v>
+        <v>9.463626541692889</v>
       </c>
       <c r="R5">
-        <v>5.423866264828558</v>
+        <v>85.172638875236</v>
       </c>
       <c r="S5">
-        <v>0.001346658129149983</v>
+        <v>0.001934810830789012</v>
       </c>
       <c r="T5">
-        <v>0.001346658129149983</v>
+        <v>0.001934810830789011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.6066138449799</v>
+        <v>19.618566</v>
       </c>
       <c r="H6">
-        <v>19.6066138449799</v>
+        <v>58.855698</v>
       </c>
       <c r="I6">
-        <v>0.5197856300759927</v>
+        <v>0.4722636519567852</v>
       </c>
       <c r="J6">
-        <v>0.5197856300759927</v>
+        <v>0.4722636519567853</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N6">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q6">
-        <v>138.2966981711351</v>
+        <v>172.20297669091</v>
       </c>
       <c r="R6">
-        <v>138.2966981711351</v>
+        <v>1549.82679021819</v>
       </c>
       <c r="S6">
-        <v>0.03433682980615443</v>
+        <v>0.03520639608165262</v>
       </c>
       <c r="T6">
-        <v>0.03433682980615443</v>
+        <v>0.03520639608165263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.6066138449799</v>
+        <v>19.618566</v>
       </c>
       <c r="H7">
-        <v>19.6066138449799</v>
+        <v>58.855698</v>
       </c>
       <c r="I7">
-        <v>0.5197856300759927</v>
+        <v>0.4722636519567852</v>
       </c>
       <c r="J7">
-        <v>0.5197856300759927</v>
+        <v>0.4722636519567853</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q7">
-        <v>706.8641571663654</v>
+        <v>709.0425785623622</v>
       </c>
       <c r="R7">
-        <v>706.8641571663654</v>
+        <v>6381.38320706126</v>
       </c>
       <c r="S7">
-        <v>0.1755029193152361</v>
+        <v>0.1449616861410534</v>
       </c>
       <c r="T7">
-        <v>0.1755029193152361</v>
+        <v>0.1449616861410534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.6066138449799</v>
+        <v>19.618566</v>
       </c>
       <c r="H8">
-        <v>19.6066138449799</v>
+        <v>58.855698</v>
       </c>
       <c r="I8">
-        <v>0.5197856300759927</v>
+        <v>0.4722636519567852</v>
       </c>
       <c r="J8">
-        <v>0.5197856300759927</v>
+        <v>0.4722636519567853</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N8">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q8">
-        <v>921.4133005132204</v>
+        <v>1070.790101779002</v>
       </c>
       <c r="R8">
-        <v>921.4133005132204</v>
+        <v>9637.110916011019</v>
       </c>
       <c r="S8">
-        <v>0.2287719960002122</v>
+        <v>0.2189199116529247</v>
       </c>
       <c r="T8">
-        <v>0.2287719960002122</v>
+        <v>0.2189199116529248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.6066138449799</v>
+        <v>19.618566</v>
       </c>
       <c r="H9">
-        <v>19.6066138449799</v>
+        <v>58.855698</v>
       </c>
       <c r="I9">
-        <v>0.5197856300759927</v>
+        <v>0.4722636519567852</v>
       </c>
       <c r="J9">
-        <v>0.5197856300759927</v>
+        <v>0.4722636519567853</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N9">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O9">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P9">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q9">
-        <v>326.9399164189464</v>
+        <v>357.9197971205561</v>
       </c>
       <c r="R9">
-        <v>326.9399164189464</v>
+        <v>3221.278174085005</v>
       </c>
       <c r="S9">
-        <v>0.08117388495438999</v>
+        <v>0.0731756580811545</v>
       </c>
       <c r="T9">
-        <v>0.08117388495438999</v>
+        <v>0.07317565808115449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.114750870031</v>
+        <v>19.284536</v>
       </c>
       <c r="H10">
-        <v>16.114750870031</v>
+        <v>57.85360799999999</v>
       </c>
       <c r="I10">
-        <v>0.427213796360934</v>
+        <v>0.4642227876212815</v>
       </c>
       <c r="J10">
-        <v>0.427213796360934</v>
+        <v>0.4642227876212815</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N10">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O10">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P10">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q10">
-        <v>113.6665848981532</v>
+        <v>169.2710111076933</v>
       </c>
       <c r="R10">
-        <v>113.6665848981532</v>
+        <v>1523.43909996924</v>
       </c>
       <c r="S10">
-        <v>0.02822157167819718</v>
+        <v>0.03460696427388673</v>
       </c>
       <c r="T10">
-        <v>0.02822157167819718</v>
+        <v>0.03460696427388673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.114750870031</v>
+        <v>19.284536</v>
       </c>
       <c r="H11">
-        <v>16.114750870031</v>
+        <v>57.85360799999999</v>
       </c>
       <c r="I11">
-        <v>0.427213796360934</v>
+        <v>0.4642227876212815</v>
       </c>
       <c r="J11">
-        <v>0.427213796360934</v>
+        <v>0.4642227876212815</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P11">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q11">
-        <v>580.9743529276967</v>
+        <v>696.9702643821521</v>
       </c>
       <c r="R11">
-        <v>580.9743529276967</v>
+        <v>6272.732379439369</v>
       </c>
       <c r="S11">
-        <v>0.1442465202859245</v>
+        <v>0.14249353673494</v>
       </c>
       <c r="T11">
-        <v>0.1442465202859245</v>
+        <v>0.1424935367349399</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.114750870031</v>
+        <v>19.284536</v>
       </c>
       <c r="H12">
-        <v>16.114750870031</v>
+        <v>57.85360799999999</v>
       </c>
       <c r="I12">
-        <v>0.427213796360934</v>
+        <v>0.4642227876212815</v>
       </c>
       <c r="J12">
-        <v>0.427213796360934</v>
+        <v>0.4642227876212815</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N12">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O12">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P12">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q12">
-        <v>757.3131140084824</v>
+        <v>1052.558595067592</v>
       </c>
       <c r="R12">
-        <v>757.3131140084824</v>
+        <v>9473.027355608327</v>
       </c>
       <c r="S12">
-        <v>0.1880285780467426</v>
+        <v>0.2151925333068506</v>
       </c>
       <c r="T12">
-        <v>0.1880285780467426</v>
+        <v>0.2151925333068506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.114750870031</v>
+        <v>19.284536</v>
       </c>
       <c r="H13">
-        <v>16.114750870031</v>
+        <v>57.85360799999999</v>
       </c>
       <c r="I13">
-        <v>0.427213796360934</v>
+        <v>0.4642227876212815</v>
       </c>
       <c r="J13">
-        <v>0.427213796360934</v>
+        <v>0.4642227876212815</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N13">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O13">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P13">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q13">
-        <v>268.7131671086105</v>
+        <v>351.8257762919094</v>
       </c>
       <c r="R13">
-        <v>268.7131671086105</v>
+        <v>3166.431986627184</v>
       </c>
       <c r="S13">
-        <v>0.06671712635006982</v>
+        <v>0.07192975330560424</v>
       </c>
       <c r="T13">
-        <v>0.06671712635006982</v>
+        <v>0.07192975330560422</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.67394250349882</v>
+        <v>2.119724666666667</v>
       </c>
       <c r="H14">
-        <v>1.67394250349882</v>
+        <v>6.359174</v>
       </c>
       <c r="I14">
-        <v>0.04437743639832524</v>
+        <v>0.05102660980536902</v>
       </c>
       <c r="J14">
-        <v>0.04437743639832524</v>
+        <v>0.05102660980536902</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N14">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O14">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P14">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q14">
-        <v>11.80727702358887</v>
+        <v>18.60599278077445</v>
       </c>
       <c r="R14">
-        <v>11.80727702358887</v>
+        <v>167.45393502697</v>
       </c>
       <c r="S14">
-        <v>0.00293155561191632</v>
+        <v>0.003803940930173783</v>
       </c>
       <c r="T14">
-        <v>0.00293155561191632</v>
+        <v>0.003803940930173783</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.67394250349882</v>
+        <v>2.119724666666667</v>
       </c>
       <c r="H15">
-        <v>1.67394250349882</v>
+        <v>6.359174</v>
       </c>
       <c r="I15">
-        <v>0.04437743639832524</v>
+        <v>0.05102660980536902</v>
       </c>
       <c r="J15">
-        <v>0.04437743639832524</v>
+        <v>0.05102660980536902</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N15">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O15">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P15">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q15">
-        <v>60.34953134876015</v>
+        <v>76.60983190593936</v>
       </c>
       <c r="R15">
-        <v>60.34953134876015</v>
+        <v>689.4884871534541</v>
       </c>
       <c r="S15">
-        <v>0.01498381099626328</v>
+        <v>0.01566265657922105</v>
       </c>
       <c r="T15">
-        <v>0.01498381099626328</v>
+        <v>0.01566265657922104</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.67394250349882</v>
+        <v>2.119724666666667</v>
       </c>
       <c r="H16">
-        <v>1.67394250349882</v>
+        <v>6.359174</v>
       </c>
       <c r="I16">
-        <v>0.04437743639832524</v>
+        <v>0.05102660980536902</v>
       </c>
       <c r="J16">
-        <v>0.04437743639832524</v>
+        <v>0.05102660980536902</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N16">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O16">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P16">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q16">
-        <v>78.66696917750164</v>
+        <v>115.6955198235927</v>
       </c>
       <c r="R16">
-        <v>78.66696917750164</v>
+        <v>1041.259678412334</v>
       </c>
       <c r="S16">
-        <v>0.01953173407416643</v>
+        <v>0.02365361141865272</v>
       </c>
       <c r="T16">
-        <v>0.01953173407416643</v>
+        <v>0.02365361141865272</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.67394250349882</v>
+        <v>2.119724666666667</v>
       </c>
       <c r="H17">
-        <v>1.67394250349882</v>
+        <v>6.359174</v>
       </c>
       <c r="I17">
-        <v>0.04437743639832524</v>
+        <v>0.05102660980536902</v>
       </c>
       <c r="J17">
-        <v>0.04437743639832524</v>
+        <v>0.05102660980536902</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N17">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O17">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P17">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q17">
-        <v>27.91295970385789</v>
+        <v>38.67211409053913</v>
       </c>
       <c r="R17">
-        <v>27.91295970385789</v>
+        <v>348.049026814852</v>
       </c>
       <c r="S17">
-        <v>0.006930335715979214</v>
+        <v>0.007906400877321472</v>
       </c>
       <c r="T17">
-        <v>0.006930335715979214</v>
+        <v>0.007906400877321472</v>
       </c>
     </row>
   </sheetData>
